--- a/Testing/StudyRing - Test Template [1.1].xlsx
+++ b/Testing/StudyRing - Test Template [1.1].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1039,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
